--- a/public/examples/cam_example_new.xlsx
+++ b/public/examples/cam_example_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oak Soe Aung\Development\projects\ExamResult\public\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B866FE-2D32-4B77-BC9C-8EBF0BE1FB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A7B98-EE96-482B-8F68-DE5F715A6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2198D89A-5D40-429D-941B-B07BF447D3F0}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>WZYT</t>
-  </si>
-  <si>
     <t>Endeavour, participation and cooperation</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t xml:space="preserve">Secondary 1 </t>
   </si>
   <si>
-    <t>Pre Mid</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -294,6 +288,12 @@
   </si>
   <si>
     <t>Remark of the Class Teacher</t>
+  </si>
+  <si>
+    <t>Pre-Mid Year</t>
+  </si>
+  <si>
+    <t>Waizayantar</t>
   </si>
 </sst>
 </file>
@@ -449,6 +449,27 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,27 +492,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A21A16A-CC1A-4C34-B273-1A840106E98A}">
   <dimension ref="A1:CO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1:BL1"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DN1" sqref="DN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,129 +942,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="23" t="s">
+      <c r="A1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="21" t="s">
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="30" t="s">
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="30"/>
-      <c r="BL1" s="30"/>
-      <c r="BM1" s="31" t="s">
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="31"/>
-      <c r="BQ1" s="31"/>
-      <c r="BR1" s="31"/>
-      <c r="BS1" s="32" t="s">
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24"/>
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="32"/>
-      <c r="BX1" s="32"/>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="32"/>
-      <c r="CA1" s="32"/>
-      <c r="CB1" s="32"/>
-      <c r="CC1" s="32"/>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27"/>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="26"/>
+      <c r="CF1" s="19"/>
+      <c r="CG1" s="19"/>
+      <c r="CH1" s="19"/>
+      <c r="CI1" s="19"/>
+      <c r="CJ1" s="19"/>
+      <c r="CK1" s="19"/>
+      <c r="CL1" s="19"/>
+      <c r="CM1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="CN1" s="18"/>
+      <c r="CO1" s="18"/>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1089,279 +1089,279 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="AO2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AS2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AT2" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="AU2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AV2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="AY2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="AZ2" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BE2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="BE2" s="14" t="s">
+      <c r="BF2" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="BF2" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="BG2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BK2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BL2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="BL2" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="BM2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="BN2" s="16" t="s">
+      <c r="BQ2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BO2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ2" s="16" t="s">
+      <c r="BR2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BS2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BT2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="BU2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BU2" s="17" t="s">
+      <c r="BV2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BV2" s="17" t="s">
+      <c r="BW2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BW2" s="17" t="s">
+      <c r="BX2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BX2" s="17" t="s">
+      <c r="BY2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BY2" s="17" t="s">
+      <c r="BZ2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BZ2" s="17" t="s">
+      <c r="CA2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CB2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="CB2" s="17" t="s">
+      <c r="CC2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="CC2" s="17" t="s">
+      <c r="CD2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="CD2" s="17" t="s">
+      <c r="CE2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CF2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="CF2" s="11" t="s">
+      <c r="CG2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="CG2" s="11" t="s">
+      <c r="CH2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="CH2" s="11" t="s">
+      <c r="CI2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="CI2" s="11" t="s">
+      <c r="CJ2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="CJ2" s="11" t="s">
+      <c r="CK2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="CK2" s="11" t="s">
+      <c r="CL2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="CL2" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="CM2" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CN2" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="CO2" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1">
         <v>45544</v>
@@ -1541,102 +1541,95 @@
         <v>3</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BN3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP3" t="s">
         <v>70</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BQ3" t="s">
         <v>71</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BR3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>70</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>71</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>69</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="CM3" t="s">
         <v>72</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="CN3" t="s">
         <v>73</v>
       </c>
-      <c r="BR3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="3">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="3">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>1</v>
-      </c>
-      <c r="BZ3" s="3">
-        <v>1</v>
-      </c>
-      <c r="CA3" s="3">
-        <v>1</v>
-      </c>
-      <c r="CB3" s="3">
-        <v>1</v>
-      </c>
-      <c r="CC3" s="3">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="3">
-        <v>1</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>31</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>72</v>
-      </c>
-      <c r="CI3" t="s">
+      <c r="CO3" t="s">
         <v>73</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>31</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>71</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>72</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>75</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="CM1:CO1"/>
-    <mergeCell ref="CE1:CL1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BG1:BL1"/>
-    <mergeCell ref="BM1:BR1"/>
-    <mergeCell ref="BS1:CD1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:L1"/>
@@ -1645,6 +1638,13 @@
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="R1:W1"/>
+    <mergeCell ref="CM1:CO1"/>
+    <mergeCell ref="CE1:CL1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BG1:BL1"/>
+    <mergeCell ref="BM1:BR1"/>
+    <mergeCell ref="BS1:CD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
